--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_19_16.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_19_16.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-52237.30997202577</v>
+        <v>-54675.78307177324</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673435</v>
+        <v>603248.4937673433</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>12687223.33087296</v>
+        <v>12687223.33087297</v>
       </c>
     </row>
     <row r="11">
@@ -656,16 +656,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>240.2450497563159</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>191.3118965556495</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
         <v>406.8760457417114</v>
@@ -674,10 +674,10 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H2" t="n">
-        <v>144.7364636844095</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I2" t="n">
-        <v>41.57692977292592</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -710,7 +710,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T2" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>250.995171958902</v>
@@ -722,10 +722,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -756,7 +756,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I3" t="n">
-        <v>18.8172186824774</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -783,10 +783,10 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734093895</v>
       </c>
       <c r="S3" t="n">
-        <v>128.1435076414546</v>
+        <v>128.1435076414547</v>
       </c>
       <c r="T3" t="n">
         <v>190.7165703189231</v>
@@ -814,28 +814,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -862,22 +862,22 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>88.93215267004732</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U4" t="n">
         <v>286.2118382056129</v>
       </c>
       <c r="V4" t="n">
-        <v>235.1870227546768</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>232.848624209817</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
@@ -893,7 +893,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>310.4447120429626</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -914,7 +914,7 @@
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>41.57692977292592</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -944,19 +944,19 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>250.995171958902</v>
+        <v>197.5523887421109</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
@@ -993,7 +993,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I6" t="n">
-        <v>18.8172186824774</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1020,10 +1020,10 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0.142909873409792</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S6" t="n">
-        <v>128.1435076414546</v>
+        <v>128.1435076414547</v>
       </c>
       <c r="T6" t="n">
         <v>190.7165703189231</v>
@@ -1057,19 +1057,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>106.9578662344162</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -1102,10 +1102,10 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U7" t="n">
         <v>286.2118382056129</v>
@@ -1114,13 +1114,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>201.005159506649</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1133,13 +1133,13 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>104.0313209489523</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>406.8760457417114</v>
@@ -1151,7 +1151,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I8" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1184,16 +1184,16 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T8" t="n">
-        <v>92.47445699814396</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
@@ -1291,7 +1291,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
         <v>148.6154730182124</v>
@@ -1300,13 +1300,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>71.6703719699171</v>
+        <v>151.5532127588439</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -1336,28 +1336,28 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1382,7 +1382,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>409.803338518787</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H11" t="n">
         <v>283.1540821444137</v>
@@ -1418,7 +1418,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.70251495695526</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576161</v>
@@ -1531,10 +1531,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>4.019807611472922</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
@@ -1576,10 +1576,10 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>217.4054503272883</v>
+        <v>107.4021082756239</v>
       </c>
       <c r="U13" t="n">
         <v>286.1844743892441</v>
@@ -1622,7 +1622,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H14" t="n">
-        <v>283.1540821444141</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1655,10 +1655,10 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.70251495695526</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T14" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576164</v>
       </c>
       <c r="U14" t="n">
         <v>250.9057009881286</v>
@@ -1762,13 +1762,13 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>179.8319801819362</v>
       </c>
       <c r="C16" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>77.73359659137452</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
         <v>146.4339626465692</v>
@@ -1810,10 +1810,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012164</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>217.4054503272883</v>
@@ -1825,10 +1825,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>115.7063133373735</v>
       </c>
       <c r="Y16" t="n">
         <v>218.5846533520948</v>
@@ -1892,7 +1892,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.70251495695619</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
@@ -2002,7 +2002,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>57.24347904696366</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
         <v>148.6154730182124</v>
@@ -2017,10 +2017,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2056,10 +2056,10 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U19" t="n">
-        <v>286.1844743892441</v>
+        <v>206.7582264966179</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
         <v>286.522998336591</v>
@@ -2090,7 +2090,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
-        <v>406.8760457417118</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
         <v>409.8033385187866</v>
@@ -2129,7 +2129,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
@@ -2147,7 +2147,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y20" t="n">
-        <v>386.2379386560536</v>
+        <v>386.237938656054</v>
       </c>
     </row>
     <row r="21">
@@ -2242,22 +2242,22 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>28.75188085812134</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,7 +2284,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
@@ -2293,7 +2293,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U22" t="n">
-        <v>286.1844743892441</v>
+        <v>229.7513041342098</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
@@ -2366,7 +2366,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.70251495695619</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
@@ -2479,13 +2479,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
         <v>165.5241382922688</v>
@@ -2494,7 +2494,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,22 +2521,22 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>9.146142788179482</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U25" t="n">
-        <v>286.1844743892441</v>
+        <v>241.143581509382</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
         <v>225.7096553890372</v>
@@ -2555,7 +2555,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C26" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710071</v>
       </c>
       <c r="D26" t="n">
         <v>354.683041620683</v>
@@ -2716,13 +2716,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
         <v>165.5241382922688</v>
@@ -2758,7 +2758,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>9.146142788179482</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>181.0262860016446</v>
@@ -2773,10 +2773,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>80.90831282609496</v>
       </c>
       <c r="Y28" t="n">
         <v>218.5846533520948</v>
@@ -2804,10 +2804,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187859</v>
       </c>
       <c r="H29" t="n">
-        <v>283.1540821444123</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2950,25 +2950,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>27.24739666248492</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -3001,10 +3001,10 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T31" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>228.9553704673018</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
@@ -3083,7 +3083,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U32" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881274</v>
       </c>
       <c r="V32" t="n">
         <v>327.7522584701349</v>
@@ -3193,7 +3193,7 @@
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
@@ -3232,7 +3232,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
         <v>181.0262860016446</v>
@@ -3241,13 +3241,13 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U34" t="n">
-        <v>286.1844743892441</v>
+        <v>148.8966545308544</v>
       </c>
       <c r="V34" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>229.2938944146487</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
         <v>225.7096553890372</v>
@@ -3658,16 +3658,16 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>110.1270172505054</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
@@ -3676,10 +3676,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>83.06560892428168</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3712,7 +3712,7 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T40" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
         <v>286.1844743892441</v>
@@ -3794,7 +3794,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U41" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881284</v>
       </c>
       <c r="V41" t="n">
         <v>327.7522584701349</v>
@@ -3895,7 +3895,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>179.8319801819373</v>
+        <v>41.56693137108789</v>
       </c>
       <c r="C43" t="n">
         <v>167.2468210986278</v>
@@ -3904,13 +3904,13 @@
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>27.02919805176109</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
         <v>140.2947128462239</v>
@@ -3943,7 +3943,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
         <v>181.0262860016446</v>
@@ -3961,7 +3961,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
         <v>218.5846533520948</v>
@@ -4135,7 +4135,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>28.75188085812005</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
@@ -4153,7 +4153,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856553</v>
+        <v>9.146142788179397</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,7 +4180,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
         <v>181.0262860016446</v>
@@ -4304,76 +4304,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1642.972675199009</v>
+        <v>1976.204921733553</v>
       </c>
       <c r="C2" t="n">
-        <v>1274.010158258597</v>
+        <v>1976.204921733553</v>
       </c>
       <c r="D2" t="n">
-        <v>1080.765818303396</v>
+        <v>1617.939223126803</v>
       </c>
       <c r="E2" t="n">
-        <v>1080.765818303396</v>
+        <v>1232.150970528558</v>
       </c>
       <c r="F2" t="n">
-        <v>669.7799135137884</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="G2" t="n">
-        <v>254.7074633587849</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H2" t="n">
         <v>108.5090151927147</v>
       </c>
       <c r="I2" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J2" t="n">
-        <v>255.391247391209</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K2" t="n">
-        <v>589.2106210810557</v>
+        <v>589.2106210810554</v>
       </c>
       <c r="L2" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M2" t="n">
-        <v>1573.77673900139</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N2" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O2" t="n">
-        <v>2623.528026939509</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P2" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q2" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R2" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S2" t="n">
-        <v>3215.315153136266</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="T2" t="n">
-        <v>3009.337405520489</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="U2" t="n">
-        <v>2755.806928794325</v>
+        <v>2961.784676410101</v>
       </c>
       <c r="V2" t="n">
-        <v>2755.806928794325</v>
+        <v>2961.784676410101</v>
       </c>
       <c r="W2" t="n">
-        <v>2403.038273524211</v>
+        <v>2609.016021139987</v>
       </c>
       <c r="X2" t="n">
-        <v>2029.572515263131</v>
+        <v>2609.016021139987</v>
       </c>
       <c r="Y2" t="n">
-        <v>2029.572515263131</v>
+        <v>2218.876689164175</v>
       </c>
     </row>
     <row r="3">
@@ -4389,70 +4389,70 @@
         <v>1527.643104275811</v>
       </c>
       <c r="D3" t="n">
-        <v>1378.70869461456</v>
+        <v>1378.708694614559</v>
       </c>
       <c r="E3" t="n">
         <v>1219.471239609104</v>
       </c>
       <c r="F3" t="n">
-        <v>1072.93668163599</v>
+        <v>1072.936681635989</v>
       </c>
       <c r="G3" t="n">
-        <v>936.5735814686076</v>
+        <v>936.573581468607</v>
       </c>
       <c r="H3" t="n">
-        <v>846.0716871064751</v>
+        <v>846.0716871064745</v>
       </c>
       <c r="I3" t="n">
-        <v>827.064395508013</v>
+        <v>827.0643955080125</v>
       </c>
       <c r="J3" t="n">
-        <v>920.7416649986304</v>
+        <v>920.7416649986299</v>
       </c>
       <c r="K3" t="n">
-        <v>1159.005863978978</v>
+        <v>1159.005863978977</v>
       </c>
       <c r="L3" t="n">
-        <v>1525.704024291643</v>
+        <v>1525.704024291642</v>
       </c>
       <c r="M3" t="n">
-        <v>1972.980349513959</v>
+        <v>1972.980349513958</v>
       </c>
       <c r="N3" t="n">
-        <v>2446.503393068414</v>
+        <v>2446.503393068413</v>
       </c>
       <c r="O3" t="n">
-        <v>2857.464672486469</v>
+        <v>2857.464672486467</v>
       </c>
       <c r="P3" t="n">
-        <v>3167.964263962572</v>
+        <v>3167.96426396257</v>
       </c>
       <c r="Q3" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="R3" t="n">
-        <v>3325.461468201687</v>
+        <v>3325.461468201686</v>
       </c>
       <c r="S3" t="n">
-        <v>3196.023581695167</v>
+        <v>3196.023581695166</v>
       </c>
       <c r="T3" t="n">
-        <v>3003.380581373022</v>
+        <v>3003.380581373021</v>
       </c>
       <c r="U3" t="n">
-        <v>2775.312734507438</v>
+        <v>2775.312734507437</v>
       </c>
       <c r="V3" t="n">
-        <v>2540.160626275695</v>
+        <v>2540.160626275694</v>
       </c>
       <c r="W3" t="n">
         <v>2285.923269547493</v>
       </c>
       <c r="X3" t="n">
-        <v>2078.071769341961</v>
+        <v>2078.07176934196</v>
       </c>
       <c r="Y3" t="n">
-        <v>1870.311470577007</v>
+        <v>1870.311470577006</v>
       </c>
     </row>
     <row r="4">
@@ -4462,43 +4462,43 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>680.3679798527295</v>
+        <v>477.7578170212613</v>
       </c>
       <c r="C4" t="n">
-        <v>511.4317969248226</v>
+        <v>477.7578170212613</v>
       </c>
       <c r="D4" t="n">
-        <v>361.3151575124869</v>
+        <v>477.7578170212613</v>
       </c>
       <c r="E4" t="n">
-        <v>213.4020639300938</v>
+        <v>477.7578170212613</v>
       </c>
       <c r="F4" t="n">
-        <v>66.51211643218343</v>
+        <v>477.7578170212613</v>
       </c>
       <c r="G4" t="n">
-        <v>66.51211643218343</v>
+        <v>310.0549803959802</v>
       </c>
       <c r="H4" t="n">
-        <v>66.51211643218343</v>
+        <v>163.837793613838</v>
       </c>
       <c r="I4" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J4" t="n">
         <v>111.634748879119</v>
       </c>
       <c r="K4" t="n">
-        <v>315.6219318279955</v>
+        <v>315.6219318279954</v>
       </c>
       <c r="L4" t="n">
-        <v>632.1817302764916</v>
+        <v>632.1817302764914</v>
       </c>
       <c r="M4" t="n">
-        <v>976.3387758760407</v>
+        <v>976.3387758760405</v>
       </c>
       <c r="N4" t="n">
-        <v>1317.747152581906</v>
+        <v>1317.747152581905</v>
       </c>
       <c r="O4" t="n">
         <v>1617.076751502319</v>
@@ -4510,28 +4510,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R4" t="n">
-        <v>1837.464090846021</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S4" t="n">
-        <v>1837.464090846021</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="T4" t="n">
-        <v>1837.464090846021</v>
+        <v>1705.527932658019</v>
       </c>
       <c r="U4" t="n">
-        <v>1548.361223971665</v>
+        <v>1416.425065783662</v>
       </c>
       <c r="V4" t="n">
-        <v>1310.798574724517</v>
+        <v>1161.740577577775</v>
       </c>
       <c r="W4" t="n">
-        <v>1310.798574724517</v>
+        <v>926.5399470628088</v>
       </c>
       <c r="X4" t="n">
-        <v>1082.809023826499</v>
+        <v>698.5503961647914</v>
       </c>
       <c r="Y4" t="n">
-        <v>862.0164446829692</v>
+        <v>477.7578170212613</v>
       </c>
     </row>
     <row r="5">
@@ -4562,7 +4562,7 @@
         <v>108.5090151927147</v>
       </c>
       <c r="I5" t="n">
-        <v>66.51211643218345</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J5" t="n">
         <v>255.3912473912087</v>
@@ -4577,40 +4577,40 @@
         <v>1573.776739001389</v>
       </c>
       <c r="N5" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O5" t="n">
-        <v>2623.528026939509</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P5" t="n">
-        <v>3018.302393296688</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q5" t="n">
-        <v>3266.58875505237</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R5" t="n">
-        <v>3325.605821609172</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S5" t="n">
-        <v>3215.315153136267</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="T5" t="n">
-        <v>3009.337405520489</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="U5" t="n">
-        <v>2755.806928794326</v>
+        <v>3126.057954192897</v>
       </c>
       <c r="V5" t="n">
-        <v>2755.806928794326</v>
+        <v>2794.995066849327</v>
       </c>
       <c r="W5" t="n">
-        <v>2755.806928794326</v>
+        <v>2442.226411579212</v>
       </c>
       <c r="X5" t="n">
-        <v>2382.341170533246</v>
+        <v>2068.760653318132</v>
       </c>
       <c r="Y5" t="n">
-        <v>1992.201838557434</v>
+        <v>1678.62132134232</v>
       </c>
     </row>
     <row r="6">
@@ -4620,37 +4620,37 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>941.5438544811091</v>
+        <v>941.5438544811086</v>
       </c>
       <c r="C6" t="n">
-        <v>767.0908251999821</v>
+        <v>767.0908251999816</v>
       </c>
       <c r="D6" t="n">
-        <v>618.1564155387309</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E6" t="n">
-        <v>458.9189605332754</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F6" t="n">
-        <v>312.3844025601604</v>
+        <v>312.38440256016</v>
       </c>
       <c r="G6" t="n">
-        <v>176.0213023927784</v>
+        <v>176.0213023927786</v>
       </c>
       <c r="H6" t="n">
-        <v>85.51940803064586</v>
+        <v>85.51940803064583</v>
       </c>
       <c r="I6" t="n">
-        <v>66.51211643218345</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J6" t="n">
-        <v>160.1893859228005</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K6" t="n">
-        <v>398.4535849031477</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L6" t="n">
-        <v>765.1517452158132</v>
+        <v>765.1517452158134</v>
       </c>
       <c r="M6" t="n">
         <v>1212.428070438129</v>
@@ -4665,7 +4665,7 @@
         <v>2407.411984886742</v>
       </c>
       <c r="Q6" t="n">
-        <v>2565.053542533342</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R6" t="n">
         <v>2564.909189125857</v>
@@ -4674,16 +4674,16 @@
         <v>2435.471302619337</v>
       </c>
       <c r="T6" t="n">
-        <v>2242.828302297193</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U6" t="n">
         <v>2014.760455431608</v>
       </c>
       <c r="V6" t="n">
-        <v>1779.608347199866</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W6" t="n">
-        <v>1525.370990471664</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X6" t="n">
         <v>1317.519490266131</v>
@@ -4699,43 +4699,43 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>550.0410834832817</v>
+        <v>788.4062285743621</v>
       </c>
       <c r="C7" t="n">
-        <v>381.1049005553748</v>
+        <v>619.4700456464552</v>
       </c>
       <c r="D7" t="n">
-        <v>381.1049005553748</v>
+        <v>469.3534062341195</v>
       </c>
       <c r="E7" t="n">
-        <v>381.1049005553748</v>
+        <v>321.4403126517263</v>
       </c>
       <c r="F7" t="n">
-        <v>234.2149530574645</v>
+        <v>174.550365153816</v>
       </c>
       <c r="G7" t="n">
-        <v>66.51211643218345</v>
+        <v>174.550365153816</v>
       </c>
       <c r="H7" t="n">
-        <v>66.51211643218345</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I7" t="n">
-        <v>66.51211643218345</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J7" t="n">
         <v>111.634748879119</v>
       </c>
       <c r="K7" t="n">
-        <v>315.6219318279955</v>
+        <v>315.6219318279954</v>
       </c>
       <c r="L7" t="n">
-        <v>632.1817302764916</v>
+        <v>632.1817302764914</v>
       </c>
       <c r="M7" t="n">
-        <v>976.3387758760407</v>
+        <v>976.3387758760405</v>
       </c>
       <c r="N7" t="n">
-        <v>1317.747152581906</v>
+        <v>1317.747152581905</v>
       </c>
       <c r="O7" t="n">
         <v>1617.076751502319</v>
@@ -4750,25 +4750,25 @@
         <v>1927.294548088493</v>
       </c>
       <c r="S7" t="n">
-        <v>1927.294548088493</v>
+        <v>1735.608663915319</v>
       </c>
       <c r="T7" t="n">
-        <v>1927.294548088493</v>
+        <v>1513.842048484845</v>
       </c>
       <c r="U7" t="n">
-        <v>1638.191681214137</v>
+        <v>1224.739181610489</v>
       </c>
       <c r="V7" t="n">
-        <v>1383.50719300825</v>
+        <v>970.0546934046018</v>
       </c>
       <c r="W7" t="n">
-        <v>1180.471678355069</v>
+        <v>970.0546934046018</v>
       </c>
       <c r="X7" t="n">
-        <v>952.4821274570515</v>
+        <v>970.0546934046018</v>
       </c>
       <c r="Y7" t="n">
-        <v>731.6895483135214</v>
+        <v>970.0546934046018</v>
       </c>
     </row>
     <row r="8">
@@ -4778,25 +4778,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2345.167438673965</v>
+        <v>1295.236214140706</v>
       </c>
       <c r="C8" t="n">
-        <v>1976.204921733553</v>
+        <v>1190.154071768027</v>
       </c>
       <c r="D8" t="n">
-        <v>1617.939223126803</v>
+        <v>1190.154071768027</v>
       </c>
       <c r="E8" t="n">
-        <v>1232.150970528558</v>
+        <v>1190.154071768027</v>
       </c>
       <c r="F8" t="n">
-        <v>821.1650657389509</v>
+        <v>779.1681669784198</v>
       </c>
       <c r="G8" t="n">
-        <v>406.0926155839475</v>
+        <v>364.0957168234162</v>
       </c>
       <c r="H8" t="n">
-        <v>108.5090151927147</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I8" t="n">
         <v>66.51211643218343</v>
@@ -4805,13 +4805,13 @@
         <v>255.3912473912096</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810562</v>
+        <v>589.2106210810564</v>
       </c>
       <c r="L8" t="n">
         <v>1040.244834329465</v>
       </c>
       <c r="M8" t="n">
-        <v>1573.77673900139</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N8" t="n">
         <v>2120.555556060172</v>
@@ -4832,22 +4832,22 @@
         <v>3215.315153136266</v>
       </c>
       <c r="T8" t="n">
-        <v>3121.906610713899</v>
+        <v>3009.337405520489</v>
       </c>
       <c r="U8" t="n">
-        <v>3121.906610713899</v>
+        <v>2755.806928794325</v>
       </c>
       <c r="V8" t="n">
-        <v>3121.906610713899</v>
+        <v>2424.744041450754</v>
       </c>
       <c r="W8" t="n">
-        <v>3121.906610713899</v>
+        <v>2071.97538618064</v>
       </c>
       <c r="X8" t="n">
-        <v>3121.906610713899</v>
+        <v>2071.97538618064</v>
       </c>
       <c r="Y8" t="n">
-        <v>2731.767278738087</v>
+        <v>1681.836054204828</v>
       </c>
     </row>
     <row r="9">
@@ -4872,19 +4872,19 @@
         <v>312.3844025601595</v>
       </c>
       <c r="G9" t="n">
-        <v>176.0213023927781</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064576</v>
+        <v>85.51940803064554</v>
       </c>
       <c r="I9" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J9" t="n">
-        <v>160.1893859228006</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K9" t="n">
-        <v>398.4535849031475</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L9" t="n">
         <v>765.1517452158131</v>
@@ -4936,22 +4936,22 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>752.7622949738579</v>
+        <v>663.8430895008161</v>
       </c>
       <c r="C10" t="n">
-        <v>583.826112045951</v>
+        <v>663.8430895008161</v>
       </c>
       <c r="D10" t="n">
-        <v>433.7094726336153</v>
+        <v>513.7264500884803</v>
       </c>
       <c r="E10" t="n">
-        <v>285.7963790512222</v>
+        <v>365.8133565060872</v>
       </c>
       <c r="F10" t="n">
-        <v>138.9064315533118</v>
+        <v>365.8133565060872</v>
       </c>
       <c r="G10" t="n">
-        <v>66.51211643218343</v>
+        <v>212.7293032143257</v>
       </c>
       <c r="H10" t="n">
         <v>66.51211643218343</v>
@@ -4984,28 +4984,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R10" t="n">
-        <v>1927.294548088493</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="S10" t="n">
-        <v>1927.294548088493</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="T10" t="n">
-        <v>1927.294548088493</v>
+        <v>1424.011591242373</v>
       </c>
       <c r="U10" t="n">
-        <v>1927.294548088493</v>
+        <v>1134.908724368016</v>
       </c>
       <c r="V10" t="n">
-        <v>1672.610059882606</v>
+        <v>1134.908724368016</v>
       </c>
       <c r="W10" t="n">
-        <v>1383.192889845645</v>
+        <v>845.4915543310558</v>
       </c>
       <c r="X10" t="n">
-        <v>1155.203338947628</v>
+        <v>845.4915543310558</v>
       </c>
       <c r="Y10" t="n">
-        <v>934.4107598040977</v>
+        <v>845.4915543310558</v>
       </c>
     </row>
     <row r="11">
@@ -5018,7 +5018,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C11" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D11" t="n">
         <v>1590.547811004713</v>
@@ -5027,61 +5027,61 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168616</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797189</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I11" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N11" t="n">
         <v>2950.898526355938</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q11" t="n">
         <v>4562.265728852256</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y11" t="n">
         <v>2704.375866615997</v>
@@ -5103,7 +5103,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E12" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F12" t="n">
         <v>314.2396613568978</v>
@@ -5112,28 +5112,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J12" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K12" t="n">
-        <v>93.81666304797189</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L12" t="n">
-        <v>589.1422692637308</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="M12" t="n">
-        <v>1186.520756890283</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="N12" t="n">
-        <v>1814.11872044489</v>
+        <v>2148.04349261611</v>
       </c>
       <c r="O12" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P12" t="n">
         <v>2553.061288060775</v>
@@ -5173,13 +5173,13 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>580.8993044876697</v>
+        <v>874.8686257536381</v>
       </c>
       <c r="C13" t="n">
-        <v>411.9631215597628</v>
+        <v>705.9324428257312</v>
       </c>
       <c r="D13" t="n">
-        <v>411.9631215597628</v>
+        <v>555.8158034133954</v>
       </c>
       <c r="E13" t="n">
         <v>407.9027098310023</v>
@@ -5188,61 +5188,61 @@
         <v>261.0127623330919</v>
       </c>
       <c r="G13" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H13" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M13" t="n">
-        <v>1248.15024091081</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P13" t="n">
-        <v>2327.764848853362</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R13" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S13" t="n">
-        <v>2264.108249235166</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T13" t="n">
-        <v>2044.506784258107</v>
+        <v>2338.476105524075</v>
       </c>
       <c r="U13" t="n">
-        <v>1755.431557602305</v>
+        <v>2049.400878868273</v>
       </c>
       <c r="V13" t="n">
-        <v>1500.747069396418</v>
+        <v>1794.716390662386</v>
       </c>
       <c r="W13" t="n">
-        <v>1211.329899359457</v>
+        <v>1505.299220625425</v>
       </c>
       <c r="X13" t="n">
-        <v>983.3403484614396</v>
+        <v>1277.309669727408</v>
       </c>
       <c r="Y13" t="n">
-        <v>762.5477693179095</v>
+        <v>1056.517090583878</v>
       </c>
     </row>
     <row r="14">
@@ -5255,7 +5255,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C14" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D14" t="n">
         <v>1590.547811004713</v>
@@ -5264,19 +5264,19 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168616</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G14" t="n">
-        <v>379.830887436269</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K14" t="n">
         <v>852.8523611075809</v>
@@ -5291,25 +5291,25 @@
         <v>2950.898526355938</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.422291068012</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R14" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V14" t="n">
         <v>3820.749612123003</v>
@@ -5340,7 +5340,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E15" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F15" t="n">
         <v>314.2396613568978</v>
@@ -5349,28 +5349,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J15" t="n">
-        <v>93.81666304797189</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K15" t="n">
-        <v>93.81666304797189</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L15" t="n">
-        <v>589.1422692637308</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M15" t="n">
-        <v>1186.520756890283</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N15" t="n">
-        <v>1814.11872044489</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O15" t="n">
-        <v>2366.028450684177</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P15" t="n">
         <v>2553.061288060775</v>
@@ -5410,10 +5410,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>803.2707707770342</v>
+        <v>874.8686257536381</v>
       </c>
       <c r="C16" t="n">
-        <v>634.3345878491273</v>
+        <v>705.9324428257312</v>
       </c>
       <c r="D16" t="n">
         <v>555.8158034133954</v>
@@ -5425,61 +5425,61 @@
         <v>261.0127623330919</v>
       </c>
       <c r="G16" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H16" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M16" t="n">
-        <v>1248.15024091081</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P16" t="n">
-        <v>2327.764848853362</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.963083580263</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R16" t="n">
-        <v>2379.917379832665</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S16" t="n">
-        <v>2197.062545487569</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T16" t="n">
-        <v>1977.461080510511</v>
+        <v>2227.361618603201</v>
       </c>
       <c r="U16" t="n">
-        <v>1688.385853854708</v>
+        <v>1938.286391947399</v>
       </c>
       <c r="V16" t="n">
-        <v>1433.701365648821</v>
+        <v>1683.601903741512</v>
       </c>
       <c r="W16" t="n">
-        <v>1433.701365648821</v>
+        <v>1394.184733704551</v>
       </c>
       <c r="X16" t="n">
-        <v>1205.711814750804</v>
+        <v>1277.309669727407</v>
       </c>
       <c r="Y16" t="n">
-        <v>984.9192356072739</v>
+        <v>1056.517090583877</v>
       </c>
     </row>
     <row r="17">
@@ -5504,19 +5504,19 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797189</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L17" t="n">
         <v>1478.611553332387</v>
@@ -5525,19 +5525,19 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O17" t="n">
         <v>3640.42229106801</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R17" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S17" t="n">
         <v>4606.285157492578</v>
@@ -5549,13 +5549,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y17" t="n">
         <v>2704.375866615997</v>
@@ -5577,7 +5577,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E18" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F18" t="n">
         <v>314.2396613568978</v>
@@ -5586,28 +5586,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J18" t="n">
-        <v>93.81666304797189</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K18" t="n">
-        <v>93.81666304797189</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L18" t="n">
-        <v>589.1422692637307</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="M18" t="n">
-        <v>1186.520756890282</v>
+        <v>1174.766565373399</v>
       </c>
       <c r="N18" t="n">
-        <v>1814.118720444889</v>
+        <v>1802.364528928006</v>
       </c>
       <c r="O18" t="n">
-        <v>2366.028450684176</v>
+        <v>2354.274259167293</v>
       </c>
       <c r="P18" t="n">
         <v>2553.061288060775</v>
@@ -5647,76 +5647,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>763.7541388327652</v>
+        <v>1098.667160263527</v>
       </c>
       <c r="C19" t="n">
-        <v>705.9324428257312</v>
+        <v>929.7309773356195</v>
       </c>
       <c r="D19" t="n">
-        <v>555.8158034133954</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="E19" t="n">
-        <v>407.9027098310023</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F19" t="n">
-        <v>261.0127623330919</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G19" t="n">
-        <v>93.81666304797189</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H19" t="n">
-        <v>93.81666304797189</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M19" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P19" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S19" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T19" t="n">
-        <v>2227.361618603202</v>
+        <v>2227.361618603201</v>
       </c>
       <c r="U19" t="n">
-        <v>1938.2863919474</v>
+        <v>2018.514925172274</v>
       </c>
       <c r="V19" t="n">
-        <v>1683.601903741513</v>
+        <v>2018.514925172274</v>
       </c>
       <c r="W19" t="n">
-        <v>1394.184733704552</v>
+        <v>1729.097755135313</v>
       </c>
       <c r="X19" t="n">
-        <v>1166.195182806535</v>
+        <v>1501.108204237296</v>
       </c>
       <c r="Y19" t="n">
-        <v>945.4026036630049</v>
+        <v>1280.315625093766</v>
       </c>
     </row>
     <row r="20">
@@ -5729,7 +5729,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C20" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D20" t="n">
         <v>1590.547811004713</v>
@@ -5747,10 +5747,10 @@
         <v>93.81666304797189</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192596</v>
+        <v>95.34095638192605</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K20" t="n">
         <v>852.8523611075807</v>
@@ -5762,16 +5762,16 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R20" t="n">
         <v>4690.833152398594</v>
@@ -5826,22 +5826,22 @@
         <v>93.81666304797189</v>
       </c>
       <c r="I21" t="n">
-        <v>95.58405025273905</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J21" t="n">
-        <v>245.2306927803938</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K21" t="n">
-        <v>579.1554649516144</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L21" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M21" t="n">
-        <v>1671.859558793925</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N21" t="n">
-        <v>2299.457522348532</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O21" t="n">
         <v>2553.061288060775</v>
@@ -5884,22 +5884,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>513.8536007400726</v>
+        <v>637.9025067654818</v>
       </c>
       <c r="C22" t="n">
-        <v>513.8536007400726</v>
+        <v>637.9025067654818</v>
       </c>
       <c r="D22" t="n">
-        <v>484.8112968429803</v>
+        <v>637.9025067654818</v>
       </c>
       <c r="E22" t="n">
-        <v>484.8112968429803</v>
+        <v>489.9894131830887</v>
       </c>
       <c r="F22" t="n">
-        <v>484.8112968429803</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="G22" t="n">
-        <v>317.6151975578603</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H22" t="n">
         <v>175.9033664000583</v>
@@ -5908,52 +5908,52 @@
         <v>93.81666304797189</v>
       </c>
       <c r="J22" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M22" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N22" t="n">
-        <v>1665.560112570819</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O22" t="n">
-        <v>2035.089393279804</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P22" t="n">
-        <v>2327.764848853362</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
-        <v>2446.963083580262</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R22" t="n">
-        <v>2379.917379832664</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S22" t="n">
-        <v>2197.062545487569</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T22" t="n">
-        <v>1977.46108051051</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U22" t="n">
-        <v>1688.385853854707</v>
+        <v>1812.434759880117</v>
       </c>
       <c r="V22" t="n">
-        <v>1433.70136564882</v>
+        <v>1557.75027167423</v>
       </c>
       <c r="W22" t="n">
-        <v>1144.28419561186</v>
+        <v>1268.333101637269</v>
       </c>
       <c r="X22" t="n">
-        <v>916.2946447138424</v>
+        <v>1040.343550739252</v>
       </c>
       <c r="Y22" t="n">
-        <v>695.5020655703123</v>
+        <v>819.5509715957215</v>
       </c>
     </row>
     <row r="23">
@@ -5978,40 +5978,40 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797189</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192571</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111714</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075798</v>
       </c>
       <c r="L23" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P23" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R23" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S23" t="n">
         <v>4606.285157492578</v>
@@ -6023,13 +6023,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y23" t="n">
         <v>2704.375866615997</v>
@@ -6051,7 +6051,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E24" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F24" t="n">
         <v>314.2396613568978</v>
@@ -6060,25 +6060,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H24" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>95.58405025273905</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J24" t="n">
-        <v>245.2306927803938</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K24" t="n">
-        <v>579.1554649516144</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L24" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M24" t="n">
-        <v>1671.859558793925</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N24" t="n">
-        <v>2299.457522348532</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O24" t="n">
         <v>2553.061288060775</v>
@@ -6121,76 +6121,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>571.6607764188008</v>
+        <v>1098.667160263526</v>
       </c>
       <c r="C25" t="n">
-        <v>402.7245934908939</v>
+        <v>929.7309773356194</v>
       </c>
       <c r="D25" t="n">
-        <v>402.7245934908939</v>
+        <v>779.6143379232836</v>
       </c>
       <c r="E25" t="n">
-        <v>402.7245934908939</v>
+        <v>631.7012443408905</v>
       </c>
       <c r="F25" t="n">
-        <v>402.7245934908939</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G25" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H25" t="n">
-        <v>93.81666304797189</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I25" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J25" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M25" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N25" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O25" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P25" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q25" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R25" t="n">
-        <v>2437.724555511392</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S25" t="n">
-        <v>2254.869721166297</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="T25" t="n">
-        <v>2035.268256189238</v>
+        <v>2227.361618603202</v>
       </c>
       <c r="U25" t="n">
-        <v>1746.193029533436</v>
+        <v>1983.7822433412</v>
       </c>
       <c r="V25" t="n">
-        <v>1491.508541327549</v>
+        <v>1729.097755135313</v>
       </c>
       <c r="W25" t="n">
-        <v>1202.091371290588</v>
+        <v>1729.097755135313</v>
       </c>
       <c r="X25" t="n">
-        <v>974.1018203925706</v>
+        <v>1501.108204237296</v>
       </c>
       <c r="Y25" t="n">
-        <v>753.3092412490405</v>
+        <v>1280.315625093766</v>
       </c>
     </row>
     <row r="26">
@@ -6212,22 +6212,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J26" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L26" t="n">
         <v>1478.611553332387</v>
@@ -6303,28 +6303,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J27" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K27" t="n">
-        <v>93.81666304797187</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L27" t="n">
-        <v>93.81666304797187</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M27" t="n">
-        <v>680.0291294438176</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N27" t="n">
-        <v>1307.627092998424</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O27" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P27" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q27" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R27" t="n">
         <v>2553.061288060775</v>
@@ -6358,16 +6358,16 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>571.6607764188008</v>
+        <v>1016.58045691144</v>
       </c>
       <c r="C28" t="n">
-        <v>402.7245934908939</v>
+        <v>847.6442739835331</v>
       </c>
       <c r="D28" t="n">
-        <v>402.7245934908939</v>
+        <v>697.5276345711974</v>
       </c>
       <c r="E28" t="n">
-        <v>402.7245934908939</v>
+        <v>549.6145409888043</v>
       </c>
       <c r="F28" t="n">
         <v>402.7245934908939</v>
@@ -6406,28 +6406,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
-        <v>2437.724555511392</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S28" t="n">
-        <v>2254.869721166297</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T28" t="n">
-        <v>2035.268256189238</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U28" t="n">
-        <v>1746.193029533436</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V28" t="n">
-        <v>1491.508541327549</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W28" t="n">
-        <v>1202.091371290588</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="X28" t="n">
-        <v>974.1018203925706</v>
+        <v>1419.02150088521</v>
       </c>
       <c r="Y28" t="n">
-        <v>753.3092412490405</v>
+        <v>1198.22892174168</v>
       </c>
     </row>
     <row r="29">
@@ -6446,25 +6446,25 @@
         <v>1590.547811004712</v>
       </c>
       <c r="E29" t="n">
-        <v>1204.759558406467</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168597</v>
+        <v>793.7736536168602</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362672</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H29" t="n">
         <v>93.81666304797186</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192571</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075805</v>
+        <v>852.85236110758</v>
       </c>
       <c r="L29" t="n">
         <v>1478.611553332386</v>
@@ -6540,28 +6540,28 @@
         <v>93.81666304797186</v>
       </c>
       <c r="J30" t="n">
-        <v>93.81666304797186</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K30" t="n">
-        <v>93.81666304797186</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L30" t="n">
-        <v>93.81666304797186</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M30" t="n">
-        <v>680.0291294438176</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N30" t="n">
-        <v>1307.627092998424</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O30" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P30" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q30" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R30" t="n">
         <v>2553.061288060775</v>
@@ -6595,25 +6595,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>571.6607764188008</v>
+        <v>733.4550657171301</v>
       </c>
       <c r="C31" t="n">
-        <v>402.7245934908938</v>
+        <v>733.4550657171301</v>
       </c>
       <c r="D31" t="n">
-        <v>402.7245934908938</v>
+        <v>583.3384263047943</v>
       </c>
       <c r="E31" t="n">
-        <v>402.7245934908938</v>
+        <v>435.4253327224012</v>
       </c>
       <c r="F31" t="n">
-        <v>402.7245934908938</v>
+        <v>288.5353852244908</v>
       </c>
       <c r="G31" t="n">
-        <v>235.5284942057738</v>
+        <v>121.3392859393708</v>
       </c>
       <c r="H31" t="n">
-        <v>93.81666304797186</v>
+        <v>121.3392859393708</v>
       </c>
       <c r="I31" t="n">
         <v>93.81666304797186</v>
@@ -6649,22 +6649,22 @@
         <v>2197.062545487567</v>
       </c>
       <c r="T31" t="n">
-        <v>1977.461080510508</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="U31" t="n">
-        <v>1746.193029533436</v>
+        <v>1907.987318831765</v>
       </c>
       <c r="V31" t="n">
-        <v>1491.508541327549</v>
+        <v>1653.302830625878</v>
       </c>
       <c r="W31" t="n">
-        <v>1202.091371290588</v>
+        <v>1363.885660588917</v>
       </c>
       <c r="X31" t="n">
-        <v>974.1018203925706</v>
+        <v>1135.8961096909</v>
       </c>
       <c r="Y31" t="n">
-        <v>753.3092412490405</v>
+        <v>915.1035305473698</v>
       </c>
     </row>
     <row r="32">
@@ -6686,22 +6686,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I32" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192592</v>
       </c>
       <c r="J32" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L32" t="n">
         <v>1478.611553332387</v>
@@ -6719,16 +6719,16 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R32" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S32" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T32" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U32" t="n">
         <v>4151.812499466573</v>
@@ -6771,34 +6771,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H33" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I33" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J33" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K33" t="n">
-        <v>93.81666304797187</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L33" t="n">
-        <v>93.81666304797187</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M33" t="n">
-        <v>680.0291294438176</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N33" t="n">
-        <v>1307.627092998424</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O33" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P33" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q33" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R33" t="n">
         <v>2553.061288060775</v>
@@ -6832,28 +6832,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>571.6607764188008</v>
+        <v>719.5738700011939</v>
       </c>
       <c r="C34" t="n">
-        <v>402.7245934908939</v>
+        <v>550.637687073287</v>
       </c>
       <c r="D34" t="n">
-        <v>402.7245934908939</v>
+        <v>550.637687073287</v>
       </c>
       <c r="E34" t="n">
-        <v>402.7245934908939</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F34" t="n">
-        <v>402.7245934908939</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G34" t="n">
         <v>235.5284942057738</v>
       </c>
       <c r="H34" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I34" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J34" t="n">
         <v>174.0526814782957</v>
@@ -6880,28 +6880,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R34" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S34" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T34" t="n">
-        <v>1977.461080510508</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U34" t="n">
-        <v>1688.385853854706</v>
+        <v>1894.106123115829</v>
       </c>
       <c r="V34" t="n">
-        <v>1433.701365648819</v>
+        <v>1639.421634909942</v>
       </c>
       <c r="W34" t="n">
-        <v>1202.091371290588</v>
+        <v>1350.004464872981</v>
       </c>
       <c r="X34" t="n">
-        <v>974.1018203925706</v>
+        <v>1122.014913974964</v>
       </c>
       <c r="Y34" t="n">
-        <v>753.3092412490405</v>
+        <v>901.2223348314336</v>
       </c>
     </row>
     <row r="35">
@@ -6923,19 +6923,19 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G35" t="n">
         <v>379.8308874362683</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K35" t="n">
         <v>852.8523611075807</v>
@@ -6944,10 +6944,10 @@
         <v>1478.611553332387</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O35" t="n">
         <v>3640.422291068009</v>
@@ -7014,19 +7014,19 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J36" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K36" t="n">
-        <v>280.8495004245706</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L36" t="n">
-        <v>776.1751066403293</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M36" t="n">
-        <v>1373.553594266881</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N36" t="n">
-        <v>2001.151557821488</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O36" t="n">
         <v>2553.061288060775</v>
@@ -7160,16 +7160,16 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G38" t="n">
         <v>379.8308874362683</v>
       </c>
       <c r="H38" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J38" t="n">
         <v>378.1925803111715</v>
@@ -7181,10 +7181,10 @@
         <v>1478.611553332387</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O38" t="n">
         <v>3640.422291068009</v>
@@ -7248,22 +7248,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J39" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K39" t="n">
-        <v>579.1554649516142</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L39" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M39" t="n">
-        <v>1671.859558793925</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N39" t="n">
-        <v>2299.457522348532</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O39" t="n">
         <v>2553.061288060775</v>
@@ -7306,25 +7306,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>513.8536007400712</v>
+        <v>915.1035305473698</v>
       </c>
       <c r="C40" t="n">
-        <v>344.9174178121643</v>
+        <v>746.1673476194629</v>
       </c>
       <c r="D40" t="n">
-        <v>344.9174178121643</v>
+        <v>596.0507082071272</v>
       </c>
       <c r="E40" t="n">
-        <v>344.9174178121643</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F40" t="n">
-        <v>344.9174178121643</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G40" t="n">
-        <v>177.7213185270443</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H40" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I40" t="n">
         <v>93.81666304797187</v>
@@ -7360,22 +7360,22 @@
         <v>2197.062545487567</v>
       </c>
       <c r="T40" t="n">
-        <v>1977.461080510508</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="U40" t="n">
-        <v>1688.385853854706</v>
+        <v>1907.987318831765</v>
       </c>
       <c r="V40" t="n">
-        <v>1433.701365648819</v>
+        <v>1653.302830625878</v>
       </c>
       <c r="W40" t="n">
-        <v>1144.284195611858</v>
+        <v>1363.885660588917</v>
       </c>
       <c r="X40" t="n">
-        <v>916.2946447138411</v>
+        <v>1135.8961096909</v>
       </c>
       <c r="Y40" t="n">
-        <v>695.5020655703109</v>
+        <v>915.1035305473698</v>
       </c>
     </row>
     <row r="41">
@@ -7397,31 +7397,31 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H41" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J41" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O41" t="n">
         <v>3640.42229106801</v>
@@ -7445,13 +7445,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y41" t="n">
         <v>2704.375866615997</v>
@@ -7488,28 +7488,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J42" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K42" t="n">
-        <v>93.81666304797187</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L42" t="n">
-        <v>93.81666304797187</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M42" t="n">
-        <v>691.1951506745238</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N42" t="n">
-        <v>1318.79311422913</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O42" t="n">
-        <v>1870.702844468417</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P42" t="n">
-        <v>2294.325993963485</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q42" t="n">
-        <v>2527.587654338368</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R42" t="n">
         <v>2553.061288060775</v>
@@ -7543,19 +7543,19 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>513.8536007400712</v>
+        <v>948.5505208511906</v>
       </c>
       <c r="C43" t="n">
-        <v>344.9174178121643</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="D43" t="n">
-        <v>344.9174178121643</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="E43" t="n">
-        <v>344.9174178121643</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F43" t="n">
-        <v>344.9174178121643</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G43" t="n">
         <v>317.6151975578602</v>
@@ -7591,28 +7591,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R43" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S43" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T43" t="n">
-        <v>1977.461080510508</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U43" t="n">
-        <v>1688.385853854706</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V43" t="n">
-        <v>1433.701365648819</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W43" t="n">
-        <v>1144.284195611858</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X43" t="n">
-        <v>916.2946447138411</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="Y43" t="n">
-        <v>695.5020655703109</v>
+        <v>990.5373202159259</v>
       </c>
     </row>
     <row r="44">
@@ -7622,46 +7622,46 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C44" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D44" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E44" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G44" t="n">
         <v>379.8308874362683</v>
       </c>
       <c r="H44" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K44" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P44" t="n">
         <v>4194.413870694707</v>
@@ -7679,19 +7679,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U44" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y44" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="45">
@@ -7722,31 +7722,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J45" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K45" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L45" t="n">
-        <v>93.81666304797187</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M45" t="n">
-        <v>680.0291294438176</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N45" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O45" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P45" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q45" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R45" t="n">
         <v>2553.061288060775</v>
@@ -7780,25 +7780,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>513.8536007400712</v>
+        <v>580.8993044876688</v>
       </c>
       <c r="C46" t="n">
-        <v>484.8112968429803</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="D46" t="n">
-        <v>484.8112968429803</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="E46" t="n">
-        <v>484.8112968429803</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="F46" t="n">
-        <v>484.8112968429803</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="G46" t="n">
-        <v>317.6151975578602</v>
+        <v>244.7670222746419</v>
       </c>
       <c r="H46" t="n">
-        <v>175.9033664000583</v>
+        <v>103.0551911168399</v>
       </c>
       <c r="I46" t="n">
         <v>93.81666304797187</v>
@@ -7828,28 +7828,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R46" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S46" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T46" t="n">
-        <v>1977.461080510508</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U46" t="n">
-        <v>1688.385853854706</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V46" t="n">
-        <v>1433.701365648819</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W46" t="n">
-        <v>1144.284195611858</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X46" t="n">
-        <v>916.2946447138411</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y46" t="n">
-        <v>695.5020655703109</v>
+        <v>762.5477693179085</v>
       </c>
     </row>
   </sheetData>
@@ -8079,7 +8079,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>4.308775558570233e-13</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -9422,7 +9422,7 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>1.335820343228988e-12</v>
+        <v>0</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -22544,16 +22544,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>142.4887919071647</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>163.3711450650335</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -22598,13 +22598,13 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>84.95302313520337</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
@@ -22613,7 +22613,7 @@
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -22762,10 +22762,10 @@
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>16.95062056915117</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>53.67437412677404</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -23270,7 +23270,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>-3.979039320256561e-13</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -23419,10 +23419,10 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>142.4141550350963</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
@@ -23434,7 +23434,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>81.2658363185655</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,13 +23461,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012164</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>110.0033420516644</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -23656,7 +23656,7 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>70.88187642683783</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
@@ -23671,7 +23671,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>81.2658363185655</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,10 +23698,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -23713,10 +23713,10 @@
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>110.0033420516637</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -23780,7 +23780,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>-9.094947017729282e-13</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
         <v>0</v>
@@ -23890,7 +23890,7 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>110.0033420516642</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
@@ -23905,10 +23905,10 @@
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23935,7 +23935,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
@@ -23944,10 +23944,10 @@
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>79.42624789262624</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
@@ -24127,22 +24127,22 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>167.2468210986263</v>
       </c>
       <c r="D22" t="n">
-        <v>119.863592160091</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -24172,7 +24172,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -24181,7 +24181,7 @@
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>56.43317025503436</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -24367,13 +24367,13 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
@@ -24382,7 +24382,7 @@
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24409,22 +24409,22 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>57.2291039219422</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>45.04089287986216</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
@@ -24604,13 +24604,13 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
@@ -24646,7 +24646,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>57.2291039219422</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -24661,10 +24661,10 @@
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>144.8013425629422</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -24838,25 +24838,25 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856553</v>
+        <v>54.01843965608062</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24889,10 +24889,10 @@
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U31" t="n">
-        <v>57.22910392194231</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -25081,7 +25081,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
         <v>145.4210480229312</v>
@@ -25120,7 +25120,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -25129,13 +25129,13 @@
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>137.2878198583898</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>57.22910392194231</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
@@ -25546,16 +25546,16 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>36.30694539606372</v>
       </c>
       <c r="F40" t="n">
         <v>145.4210480229312</v>
@@ -25564,10 +25564,10 @@
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>57.22910392194221</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25600,7 +25600,7 @@
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
@@ -25783,7 +25783,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>138.2650488108494</v>
       </c>
       <c r="C43" t="n">
         <v>0</v>
@@ -25792,13 +25792,13 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>138.4949402405078</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -25831,7 +25831,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
@@ -25849,7 +25849,7 @@
         <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
         <v>0</v>
@@ -26023,7 +26023,7 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>138.4949402405078</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
         <v>148.6154730182124</v>
@@ -26041,7 +26041,7 @@
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>72.11969353038614</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26068,7 +26068,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>1101236.844916742</v>
+        <v>1101236.844916743</v>
       </c>
     </row>
     <row r="6">
@@ -26179,7 +26179,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>1101236.844916742</v>
+        <v>1101236.844916743</v>
       </c>
     </row>
     <row r="10">
@@ -26187,7 +26187,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>1101236.844916742</v>
+        <v>1101236.844916743</v>
       </c>
     </row>
     <row r="11">
@@ -26195,7 +26195,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>1101236.844916742</v>
+        <v>1101236.844916743</v>
       </c>
     </row>
     <row r="12">
@@ -26203,7 +26203,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>1101236.844916742</v>
+        <v>1101236.844916743</v>
       </c>
     </row>
     <row r="13">
@@ -26219,7 +26219,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>1101236.844916742</v>
+        <v>1101236.844916743</v>
       </c>
     </row>
     <row r="15">
@@ -26227,7 +26227,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>1101236.844916743</v>
+        <v>1101236.844916742</v>
       </c>
     </row>
     <row r="16">
@@ -26314,31 +26314,31 @@
         <v>298593.7657794692</v>
       </c>
       <c r="C2" t="n">
-        <v>328416.7079457134</v>
+        <v>328416.7079457133</v>
       </c>
       <c r="D2" t="n">
         <v>328416.7079457132</v>
       </c>
       <c r="E2" t="n">
-        <v>322858.6398760026</v>
+        <v>322858.6398760023</v>
       </c>
       <c r="F2" t="n">
         <v>322858.6398760024</v>
       </c>
       <c r="G2" t="n">
+        <v>322858.6398760023</v>
+      </c>
+      <c r="H2" t="n">
         <v>322858.6398760026</v>
       </c>
-      <c r="H2" t="n">
+      <c r="I2" t="n">
         <v>322858.6398760025</v>
       </c>
-      <c r="I2" t="n">
+      <c r="J2" t="n">
         <v>322858.6398760023</v>
       </c>
-      <c r="J2" t="n">
+      <c r="K2" t="n">
         <v>322858.6398760024</v>
-      </c>
-      <c r="K2" t="n">
-        <v>322858.6398760023</v>
       </c>
       <c r="L2" t="n">
         <v>322858.6398760024</v>
@@ -26347,10 +26347,10 @@
         <v>322858.6398760024</v>
       </c>
       <c r="N2" t="n">
+        <v>322858.6398760024</v>
+      </c>
+      <c r="O2" t="n">
         <v>322858.6398760023</v>
-      </c>
-      <c r="O2" t="n">
-        <v>322858.6398760024</v>
       </c>
       <c r="P2" t="n">
         <v>322858.6398760024</v>
@@ -26372,7 +26372,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073555</v>
+        <v>325412.4618073551</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26381,13 +26381,13 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>1.741016149026109e-10</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>217531.2023972775</v>
+        <v>217531.2023972773</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26415,10 +26415,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>49019.07124050398</v>
+        <v>49019.07124050418</v>
       </c>
       <c r="C4" t="n">
-        <v>91573.95495316933</v>
+        <v>91573.95495316942</v>
       </c>
       <c r="D4" t="n">
         <v>91573.95495316939</v>
@@ -26433,19 +26433,19 @@
         <v>12386.92018181813</v>
       </c>
       <c r="H4" t="n">
+        <v>12386.92018181813</v>
+      </c>
+      <c r="I4" t="n">
+        <v>12386.92018181813</v>
+      </c>
+      <c r="J4" t="n">
+        <v>12386.92018181815</v>
+      </c>
+      <c r="K4" t="n">
+        <v>12386.92018181816</v>
+      </c>
+      <c r="L4" t="n">
         <v>12386.92018181818</v>
-      </c>
-      <c r="I4" t="n">
-        <v>12386.92018181809</v>
-      </c>
-      <c r="J4" t="n">
-        <v>12386.92018181813</v>
-      </c>
-      <c r="K4" t="n">
-        <v>12386.92018181819</v>
-      </c>
-      <c r="L4" t="n">
-        <v>12386.92018181813</v>
       </c>
       <c r="M4" t="n">
         <v>12386.92018181813</v>
@@ -26454,7 +26454,7 @@
         <v>12386.92018181813</v>
       </c>
       <c r="O4" t="n">
-        <v>12386.92018181813</v>
+        <v>12386.92018181814</v>
       </c>
       <c r="P4" t="n">
         <v>12386.92018181813</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1187103.991750021</v>
+        <v>-1187290.38513856</v>
       </c>
       <c r="C6" t="n">
-        <v>128908.8124311508</v>
+        <v>128908.8124311506</v>
       </c>
       <c r="D6" t="n">
-        <v>128908.8124311507</v>
+        <v>128908.8124311506</v>
       </c>
       <c r="E6" t="n">
-        <v>-116063.2719370782</v>
+        <v>-116098.0098625138</v>
       </c>
       <c r="F6" t="n">
-        <v>209349.1898702772</v>
+        <v>209314.4519448414</v>
       </c>
       <c r="G6" t="n">
-        <v>209349.1898702775</v>
+        <v>209314.4519448414</v>
       </c>
       <c r="H6" t="n">
-        <v>209349.1898702774</v>
+        <v>209314.4519448415</v>
       </c>
       <c r="I6" t="n">
-        <v>209349.1898702771</v>
+        <v>209314.4519448415</v>
       </c>
       <c r="J6" t="n">
-        <v>-8182.012527000261</v>
+        <v>-8216.750452435881</v>
       </c>
       <c r="K6" t="n">
-        <v>209349.189870277</v>
+        <v>209314.4519448415</v>
       </c>
       <c r="L6" t="n">
-        <v>209349.1898702772</v>
+        <v>209314.4519448414</v>
       </c>
       <c r="M6" t="n">
-        <v>124294.1619347653</v>
+        <v>124259.4240093296</v>
       </c>
       <c r="N6" t="n">
-        <v>209349.1898702771</v>
+        <v>209314.4519448415</v>
       </c>
       <c r="O6" t="n">
-        <v>209349.1898702772</v>
+        <v>209314.4519448414</v>
       </c>
       <c r="P6" t="n">
-        <v>209349.1898702772</v>
+        <v>209314.4519448414</v>
       </c>
     </row>
   </sheetData>
@@ -26735,10 +26735,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1089.776700593299</v>
+        <v>1089.776700593298</v>
       </c>
       <c r="C3" t="n">
-        <v>1089.776700593299</v>
+        <v>1089.776700593298</v>
       </c>
       <c r="D3" t="n">
         <v>1089.776700593298</v>
@@ -26787,28 +26787,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="C4" t="n">
-        <v>831.4014554022931</v>
+        <v>831.4014554022928</v>
       </c>
       <c r="D4" t="n">
         <v>831.4014554022929</v>
       </c>
       <c r="E4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="F4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="G4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="H4" t="n">
         <v>1172.708288099649</v>
       </c>
       <c r="I4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="J4" t="n">
         <v>1172.708288099648</v>
@@ -26957,7 +26957,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1089.776700593299</v>
+        <v>1089.776700593298</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26966,7 +26966,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>278.1987997483759</v>
+        <v>278.1987997483754</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26975,7 +26975,7 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -27009,7 +27009,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>341.3068326973557</v>
+        <v>341.3068326973555</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27255,7 +27255,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973557</v>
+        <v>341.3068326973555</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27394,7 +27394,7 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>149.871300702911</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -27430,19 +27430,19 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>118.9649470044168</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -27534,28 +27534,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27582,13 +27582,13 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S4" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T4" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
@@ -27597,7 +27597,7 @@
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -27613,7 +27613,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>72.28912962051794</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
@@ -27664,19 +27664,19 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>53.44278321679104</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
@@ -27777,19 +27777,19 @@
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H7" t="n">
-        <v>144.7550149143208</v>
+        <v>37.79714867990454</v>
       </c>
       <c r="I7" t="n">
         <v>96.35242040983809</v>
@@ -27819,13 +27819,13 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>88.93215267004732</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S7" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
@@ -27834,13 +27834,13 @@
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>85.51783882994201</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -27853,13 +27853,13 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>261.2415708220553</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
@@ -27871,7 +27871,7 @@
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27904,16 +27904,16 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>111.4435131414762</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
@@ -28011,7 +28011,7 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
@@ -28020,13 +28020,13 @@
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>94.35543628911113</v>
+        <v>14.47259550018433</v>
       </c>
       <c r="H10" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>96.35242040983809</v>
@@ -28056,28 +28056,28 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -28342,7 +28342,7 @@
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>-3.979039320256561e-13</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -28482,7 +28482,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>1.131184035330079e-12</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
@@ -28527,7 +28527,7 @@
         <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>1.319714707885093e-12</v>
+        <v>0</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -28959,7 +28959,7 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>1.508245380440106e-12</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
@@ -28992,7 +28992,7 @@
         <v>0</v>
       </c>
       <c r="N22" t="n">
-        <v>1.319714707885093e-12</v>
+        <v>0</v>
       </c>
       <c r="O22" t="n">
         <v>0</v>
@@ -29086,7 +29086,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>-8.952838470577262e-13</v>
+        <v>0</v>
       </c>
       <c r="T23" t="n">
         <v>0</v>
@@ -29275,7 +29275,7 @@
         <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="D26" t="n">
         <v>0</v>
@@ -29524,10 +29524,10 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>7.389644451905042e-13</v>
       </c>
       <c r="H29" t="n">
-        <v>1.4210854715202e-12</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -29803,7 +29803,7 @@
         <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>0</v>
+        <v>1.181774678116199e-12</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -30514,7 +30514,7 @@
         <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>2.557953848736361e-13</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -31039,7 +31039,7 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>4.381011861681599</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H2" t="n">
         <v>44.86703772844668</v>
@@ -31048,40 +31048,40 @@
         <v>168.89895979748</v>
       </c>
       <c r="J2" t="n">
-        <v>371.832905495399</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K2" t="n">
-        <v>557.2811376003812</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L2" t="n">
-        <v>691.3565293623195</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M2" t="n">
-        <v>769.2673490574996</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N2" t="n">
-        <v>781.7148990095025</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O2" t="n">
-        <v>738.1512123099061</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P2" t="n">
-        <v>629.9949819746415</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q2" t="n">
-        <v>473.0999946781691</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R2" t="n">
-        <v>275.198736356357</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S2" t="n">
-        <v>99.83230779806954</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T2" t="n">
-        <v>19.17787942451121</v>
+        <v>19.1778794245112</v>
       </c>
       <c r="U2" t="n">
-        <v>0.3504809489345279</v>
+        <v>0.3504809489345277</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31118,46 +31118,46 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>2.344047997502567</v>
+        <v>2.344047997502566</v>
       </c>
       <c r="H3" t="n">
-        <v>22.63856881798532</v>
+        <v>22.63856881798531</v>
       </c>
       <c r="I3" t="n">
-        <v>80.7051613175226</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J3" t="n">
-        <v>221.4611312026439</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K3" t="n">
-        <v>378.5123470353158</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L3" t="n">
-        <v>508.9565619138797</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M3" t="n">
-        <v>593.9283018233476</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N3" t="n">
-        <v>609.6478166837926</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O3" t="n">
-        <v>557.7086478970251</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P3" t="n">
-        <v>447.6103584002928</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q3" t="n">
         <v>299.2156706987487</v>
       </c>
       <c r="R3" t="n">
-        <v>145.5365940905542</v>
+        <v>145.5365940905541</v>
       </c>
       <c r="S3" t="n">
-        <v>43.53966346238317</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T3" t="n">
-        <v>9.448158375898499</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U3" t="n">
         <v>0.1542136840462215</v>
@@ -31200,43 +31200,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H4" t="n">
-        <v>17.4721575931188</v>
+        <v>17.47215759311879</v>
       </c>
       <c r="I4" t="n">
-        <v>59.0980545174202</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J4" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K4" t="n">
-        <v>228.3171513702025</v>
+        <v>228.3171513702024</v>
       </c>
       <c r="L4" t="n">
         <v>292.167346909882</v>
       </c>
       <c r="M4" t="n">
-        <v>308.0495024316433</v>
+        <v>308.0495024316432</v>
       </c>
       <c r="N4" t="n">
-        <v>300.7247737883116</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O4" t="n">
-        <v>277.7680023086002</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P4" t="n">
-        <v>237.678511880217</v>
+        <v>237.6785118802169</v>
       </c>
       <c r="Q4" t="n">
-        <v>164.5562817895881</v>
+        <v>164.556281789588</v>
       </c>
       <c r="R4" t="n">
-        <v>88.36123870712217</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S4" t="n">
-        <v>34.24757270553037</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T4" t="n">
-        <v>8.396640152112298</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U4" t="n">
         <v>0.1071911508780295</v>
@@ -31276,7 +31276,7 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>4.381011861681599</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H5" t="n">
         <v>44.86703772844668</v>
@@ -31285,40 +31285,40 @@
         <v>168.89895979748</v>
       </c>
       <c r="J5" t="n">
-        <v>371.832905495399</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K5" t="n">
-        <v>557.2811376003812</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L5" t="n">
-        <v>691.3565293623195</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M5" t="n">
-        <v>769.2673490574996</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N5" t="n">
-        <v>781.7148990095025</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O5" t="n">
-        <v>738.1512123099061</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P5" t="n">
-        <v>629.9949819746415</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q5" t="n">
-        <v>473.0999946781691</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R5" t="n">
-        <v>275.198736356357</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S5" t="n">
-        <v>99.83230779806954</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T5" t="n">
-        <v>19.17787942451121</v>
+        <v>19.1778794245112</v>
       </c>
       <c r="U5" t="n">
-        <v>0.3504809489345279</v>
+        <v>0.3504809489345277</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31355,46 +31355,46 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>2.344047997502567</v>
+        <v>2.344047997502566</v>
       </c>
       <c r="H6" t="n">
-        <v>22.63856881798532</v>
+        <v>22.63856881798531</v>
       </c>
       <c r="I6" t="n">
-        <v>80.7051613175226</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J6" t="n">
-        <v>221.4611312026439</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K6" t="n">
-        <v>378.5123470353158</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L6" t="n">
-        <v>508.9565619138797</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M6" t="n">
-        <v>593.9283018233476</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N6" t="n">
-        <v>609.6478166837926</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O6" t="n">
-        <v>557.7086478970251</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P6" t="n">
-        <v>447.6103584002928</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q6" t="n">
         <v>299.2156706987487</v>
       </c>
       <c r="R6" t="n">
-        <v>145.5365940905542</v>
+        <v>145.5365940905541</v>
       </c>
       <c r="S6" t="n">
-        <v>43.53966346238317</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T6" t="n">
-        <v>9.448158375898499</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U6" t="n">
         <v>0.1542136840462215</v>
@@ -31437,43 +31437,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H7" t="n">
-        <v>17.4721575931188</v>
+        <v>17.47215759311879</v>
       </c>
       <c r="I7" t="n">
-        <v>59.0980545174202</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J7" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K7" t="n">
-        <v>228.3171513702025</v>
+        <v>228.3171513702024</v>
       </c>
       <c r="L7" t="n">
         <v>292.167346909882</v>
       </c>
       <c r="M7" t="n">
-        <v>308.0495024316433</v>
+        <v>308.0495024316432</v>
       </c>
       <c r="N7" t="n">
-        <v>300.7247737883116</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O7" t="n">
-        <v>277.7680023086002</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P7" t="n">
-        <v>237.678511880217</v>
+        <v>237.6785118802169</v>
       </c>
       <c r="Q7" t="n">
-        <v>164.5562817895881</v>
+        <v>164.556281789588</v>
       </c>
       <c r="R7" t="n">
-        <v>88.36123870712217</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S7" t="n">
-        <v>34.24757270553037</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T7" t="n">
-        <v>8.396640152112298</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U7" t="n">
         <v>0.1071911508780295</v>
@@ -31750,49 +31750,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348435</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H11" t="n">
-        <v>56.32071997135342</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I11" t="n">
-        <v>212.0155798067233</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J11" t="n">
-        <v>466.7546155663284</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817578</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L11" t="n">
-        <v>867.8464071162564</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175678</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159429</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460031</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236509</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669225</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043727</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S11" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T11" t="n">
         <v>24.07361910651528</v>
       </c>
       <c r="U11" t="n">
-        <v>0.4399519197078747</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31829,10 +31829,10 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H12" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I12" t="n">
         <v>99.52238</v>
@@ -31841,22 +31841,22 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K12" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473074</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862124</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071787</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O12" t="n">
-        <v>461.1007071927443</v>
+        <v>551.7051287319853</v>
       </c>
       <c r="P12" t="n">
-        <v>561.87657862147</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q12" t="n">
         <v>139.9817740860215</v>
@@ -31865,13 +31865,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>54.6544928674244</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T12" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31908,49 +31908,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>2.466841066189904</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H13" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869278</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O13" t="n">
-        <v>348.6767717920059</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P13" t="n">
         <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R13" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532768</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,49 +31987,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348435</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H14" t="n">
-        <v>56.32071997135342</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I14" t="n">
-        <v>212.0155798067233</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J14" t="n">
-        <v>466.7546155663284</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817578</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L14" t="n">
-        <v>867.8464071162564</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175678</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159429</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460031</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236509</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669225</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043727</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S14" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T14" t="n">
         <v>24.07361910651528</v>
       </c>
       <c r="U14" t="n">
-        <v>0.4399519197078747</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32066,34 +32066,34 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H15" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I15" t="n">
         <v>99.52238</v>
       </c>
       <c r="J15" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473074</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862124</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071787</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437245</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P15" t="n">
-        <v>322.8964653704897</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q15" t="n">
         <v>139.9817740860215</v>
@@ -32102,13 +32102,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>54.6544928674244</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T15" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32145,49 +32145,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>2.466841066189904</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H16" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869278</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O16" t="n">
-        <v>348.6767717920059</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P16" t="n">
         <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R16" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532768</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32224,7 +32224,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H17" t="n">
         <v>56.32071997135341</v>
@@ -32236,31 +32236,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L17" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S17" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T17" t="n">
         <v>24.07361910651528</v>
@@ -32303,34 +32303,34 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H18" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
         <v>99.52238</v>
       </c>
       <c r="J18" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L18" t="n">
-        <v>638.8832749473073</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P18" t="n">
-        <v>322.8964653704906</v>
+        <v>334.7693860946154</v>
       </c>
       <c r="Q18" t="n">
         <v>139.9817740860215</v>
@@ -32339,13 +32339,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T18" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32385,25 +32385,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H19" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O19" t="n">
         <v>348.6767717920058</v>
@@ -32412,19 +32412,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R19" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32461,7 +32461,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H20" t="n">
         <v>56.32071997135341</v>
@@ -32473,31 +32473,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L20" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S20" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T20" t="n">
         <v>24.07361910651528</v>
@@ -32540,31 +32540,31 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H21" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I21" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J21" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L21" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M21" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O21" t="n">
-        <v>398.7616643558013</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P21" t="n">
         <v>133.9744074143302</v>
@@ -32576,13 +32576,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T21" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32622,25 +32622,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H22" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J22" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N22" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O22" t="n">
         <v>348.6767717920058</v>
@@ -32649,19 +32649,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q22" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R22" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32698,7 +32698,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H23" t="n">
         <v>56.32071997135341</v>
@@ -32710,31 +32710,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L23" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R23" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S23" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T23" t="n">
         <v>24.07361910651528</v>
@@ -32777,31 +32777,31 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H24" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I24" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J24" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L24" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M24" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O24" t="n">
-        <v>398.7616643558013</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P24" t="n">
         <v>133.9744074143302</v>
@@ -32813,13 +32813,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T24" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32859,25 +32859,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H25" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J25" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K25" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N25" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O25" t="n">
         <v>348.6767717920058</v>
@@ -32886,19 +32886,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q25" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R25" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T25" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32941,7 +32941,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I26" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J26" t="n">
         <v>466.7546155663283</v>
@@ -33023,31 +33023,31 @@
         <v>99.52238</v>
       </c>
       <c r="J27" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L27" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
-        <v>734.2678383622665</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N27" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P27" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
         <v>54.65449286742438</v>
@@ -33260,31 +33260,31 @@
         <v>99.52238</v>
       </c>
       <c r="J30" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L30" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M30" t="n">
-        <v>734.2678383622665</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N30" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P30" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
         <v>54.65449286742438</v>
@@ -33415,7 +33415,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I32" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J32" t="n">
         <v>466.7546155663283</v>
@@ -33497,31 +33497,31 @@
         <v>99.52238</v>
       </c>
       <c r="J33" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M33" t="n">
-        <v>734.2678383622665</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N33" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P33" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
         <v>54.65449286742438</v>
@@ -33673,7 +33673,7 @@
         <v>926.5868626460027</v>
       </c>
       <c r="P35" t="n">
-        <v>790.820449923651</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q35" t="n">
         <v>593.8732233669223</v>
@@ -33734,10 +33734,10 @@
         <v>99.52238</v>
       </c>
       <c r="J36" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>326.7634969305194</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L36" t="n">
         <v>638.8832749473072</v>
@@ -33749,7 +33749,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P36" t="n">
         <v>133.9744074143302</v>
@@ -33913,7 +33913,7 @@
         <v>790.8204499236507</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R38" t="n">
         <v>345.4516222043725</v>
@@ -33968,7 +33968,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J39" t="n">
         <v>277.9958514420755</v>
@@ -33986,7 +33986,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>398.7616643558013</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P39" t="n">
         <v>133.9744074143302</v>
@@ -34129,7 +34129,7 @@
         <v>212.0155798067232</v>
       </c>
       <c r="J41" t="n">
-        <v>466.7546155663288</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K41" t="n">
         <v>699.5441750817575</v>
@@ -34208,13 +34208,13 @@
         <v>99.52238</v>
       </c>
       <c r="J42" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M42" t="n">
         <v>745.5466476862121</v>
@@ -34223,16 +34223,16 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P42" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
-        <v>171.4104471179106</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
         <v>54.65449286742438</v>
@@ -34384,7 +34384,7 @@
         <v>926.5868626460027</v>
       </c>
       <c r="P44" t="n">
-        <v>790.8204499236507</v>
+        <v>790.820449923651</v>
       </c>
       <c r="Q44" t="n">
         <v>593.8732233669223</v>
@@ -34442,34 +34442,34 @@
         <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J45" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
-        <v>734.2678383622665</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N45" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P45" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
         <v>54.65449286742438</v>
@@ -34696,31 +34696,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>190.7870009687127</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K2" t="n">
-        <v>337.1912865554006</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L2" t="n">
-        <v>455.5901143923323</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M2" t="n">
-        <v>538.9211158302269</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N2" t="n">
         <v>552.3018354129115</v>
       </c>
       <c r="O2" t="n">
-        <v>508.0530008882193</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P2" t="n">
-        <v>398.761986219372</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q2" t="n">
-        <v>250.7943048037196</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R2" t="n">
-        <v>59.61319854222484</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34775,25 +34775,25 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>94.62350453597716</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K3" t="n">
-        <v>240.6709080609568</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L3" t="n">
-        <v>370.4021821340056</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M3" t="n">
-        <v>451.7942679013293</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N3" t="n">
-        <v>478.3061046004593</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O3" t="n">
-        <v>415.1124034525807</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P3" t="n">
-        <v>313.6359509859626</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q3" t="n">
         <v>159.2338966127272</v>
@@ -34854,28 +34854,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>45.57841661306625</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K4" t="n">
         <v>206.0476595443196</v>
       </c>
       <c r="L4" t="n">
-        <v>319.7573721701982</v>
+        <v>319.7573721701981</v>
       </c>
       <c r="M4" t="n">
-        <v>347.6333793934839</v>
+        <v>347.6333793934838</v>
       </c>
       <c r="N4" t="n">
-        <v>344.8569461675402</v>
+        <v>344.8569461675401</v>
       </c>
       <c r="O4" t="n">
         <v>302.3531302226398</v>
       </c>
       <c r="P4" t="n">
-        <v>234.9570711451105</v>
+        <v>234.9570711451104</v>
       </c>
       <c r="Q4" t="n">
-        <v>78.39423853789368</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34933,31 +34933,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>190.7870009687127</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K5" t="n">
-        <v>337.1912865554006</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L5" t="n">
-        <v>455.5901143923323</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M5" t="n">
-        <v>538.9211158302269</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N5" t="n">
         <v>552.3018354129115</v>
       </c>
       <c r="O5" t="n">
-        <v>508.0530008882193</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P5" t="n">
-        <v>398.761986219372</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q5" t="n">
-        <v>250.7943048037196</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R5" t="n">
-        <v>59.61319854222484</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35012,25 +35012,25 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>94.62350453597716</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K6" t="n">
-        <v>240.6709080609568</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L6" t="n">
-        <v>370.4021821340056</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M6" t="n">
-        <v>451.7942679013293</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N6" t="n">
-        <v>478.3061046004593</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O6" t="n">
-        <v>415.1124034525807</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P6" t="n">
-        <v>313.6359509859626</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q6" t="n">
         <v>159.2338966127272</v>
@@ -35091,28 +35091,28 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>45.57841661306625</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K7" t="n">
         <v>206.0476595443196</v>
       </c>
       <c r="L7" t="n">
-        <v>319.7573721701982</v>
+        <v>319.7573721701981</v>
       </c>
       <c r="M7" t="n">
-        <v>347.6333793934839</v>
+        <v>347.6333793934838</v>
       </c>
       <c r="N7" t="n">
-        <v>344.8569461675402</v>
+        <v>344.8569461675401</v>
       </c>
       <c r="O7" t="n">
         <v>302.3531302226398</v>
       </c>
       <c r="P7" t="n">
-        <v>234.9570711451105</v>
+        <v>234.9570711451104</v>
       </c>
       <c r="Q7" t="n">
-        <v>78.39423853789368</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35404,34 +35404,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317341</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J11" t="n">
-        <v>285.7087110396421</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K11" t="n">
-        <v>479.4543240367772</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L11" t="n">
-        <v>632.0799921462692</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M11" t="n">
-        <v>735.3001107902951</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N11" t="n">
-        <v>751.858447819352</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O11" t="n">
-        <v>696.4886512243163</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.567533492473</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35489,22 +35489,22 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L12" t="n">
-        <v>500.3288951674332</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M12" t="n">
-        <v>603.412613764194</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238455</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O12" t="n">
-        <v>318.5044627482999</v>
+        <v>409.1088842875408</v>
       </c>
       <c r="P12" t="n">
-        <v>427.9021712071398</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
@@ -35565,22 +35565,22 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295344</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K13" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N13" t="n">
-        <v>421.6261329899075</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P13" t="n">
         <v>295.631773306625</v>
@@ -35641,34 +35641,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317341</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J14" t="n">
-        <v>285.7087110396421</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
-        <v>479.4543240367772</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L14" t="n">
-        <v>632.0799921462692</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M14" t="n">
-        <v>735.3001107902951</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N14" t="n">
-        <v>751.858447819352</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O14" t="n">
-        <v>696.4886512243163</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.567533492473</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35723,25 +35723,25 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
-        <v>500.3288951674332</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M15" t="n">
-        <v>603.412613764194</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238455</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O15" t="n">
-        <v>557.4845759992801</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P15" t="n">
-        <v>188.9220579561594</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
@@ -35802,28 +35802,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295344</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K16" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N16" t="n">
-        <v>421.6261329899075</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P16" t="n">
         <v>295.631773306625</v>
       </c>
       <c r="Q16" t="n">
-        <v>120.4022572998997</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35878,34 +35878,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J17" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L17" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M17" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O17" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35960,25 +35960,25 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>500.3288951674331</v>
+        <v>0</v>
       </c>
       <c r="M18" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O18" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P18" t="n">
-        <v>188.9220579561604</v>
+        <v>200.7949786802852</v>
       </c>
       <c r="Q18" t="n">
         <v>0</v>
@@ -36039,22 +36039,22 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K19" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N19" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P19" t="n">
         <v>295.631773306625</v>
@@ -36115,34 +36115,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J20" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L20" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M20" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N20" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O20" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902418</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36194,7 +36194,7 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
         <v>151.1582247754088</v>
@@ -36203,16 +36203,16 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M21" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O21" t="n">
-        <v>256.1654199113569</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P21" t="n">
         <v>0</v>
@@ -36276,22 +36276,22 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K22" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L22" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N22" t="n">
-        <v>421.6261329899087</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P22" t="n">
         <v>295.631773306625</v>
@@ -36352,34 +36352,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J23" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K23" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L23" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M23" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N23" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O23" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36431,7 +36431,7 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J24" t="n">
         <v>151.1582247754088</v>
@@ -36440,16 +36440,16 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M24" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O24" t="n">
-        <v>256.1654199113569</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P24" t="n">
         <v>0</v>
@@ -36513,22 +36513,22 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K25" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L25" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M25" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N25" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P25" t="n">
         <v>295.631773306625</v>
@@ -36589,7 +36589,7 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J26" t="n">
         <v>285.708711039642</v>
@@ -36671,31 +36671,31 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
-        <v>592.1338044402481</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P27" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36908,31 +36908,31 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M30" t="n">
-        <v>592.1338044402482</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P30" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -37063,7 +37063,7 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J32" t="n">
         <v>285.708711039642</v>
@@ -37145,31 +37145,31 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M33" t="n">
-        <v>592.1338044402481</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P33" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37321,7 +37321,7 @@
         <v>696.488651224316</v>
       </c>
       <c r="P35" t="n">
-        <v>559.5874541683816</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q35" t="n">
         <v>371.5675334924728</v>
@@ -37382,10 +37382,10 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
-        <v>188.9220579561604</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
         <v>500.328895167433</v>
@@ -37397,7 +37397,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P36" t="n">
         <v>0</v>
@@ -37561,7 +37561,7 @@
         <v>559.5874541683811</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R38" t="n">
         <v>129.8660843902404</v>
@@ -37616,7 +37616,7 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J39" t="n">
         <v>151.1582247754088</v>
@@ -37634,7 +37634,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>256.1654199113569</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P39" t="n">
         <v>0</v>
@@ -37777,7 +37777,7 @@
         <v>1.539690236317256</v>
       </c>
       <c r="J41" t="n">
-        <v>285.7087110396425</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K41" t="n">
         <v>479.454324036777</v>
@@ -37856,13 +37856,13 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M42" t="n">
         <v>603.4126137641938</v>
@@ -37871,16 +37871,16 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P42" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>25.73094315394662</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -38032,7 +38032,7 @@
         <v>696.488651224316</v>
       </c>
       <c r="P44" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683816</v>
       </c>
       <c r="Q44" t="n">
         <v>371.5675334924728</v>
@@ -38090,34 +38090,34 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
-        <v>592.1338044402481</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P45" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
